--- a/pitcher_matchups_2025-09-11.xlsx
+++ b/pitcher_matchups_2025-09-11.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>StartTime</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>last updated 09/11/2025 08:41 AM ET</t>
   </si>
   <si>
     <t>PIT
@@ -212,7 +215,7 @@
 @ SD</t>
   </si>
   <si>
-    <t>Data for September 11, 2025</t>
+    <t>Batter Matchups 09/11/2025</t>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -256,14 +259,17 @@
     <t>Bryce Johnson (CF)</t>
   </si>
   <si>
-    <t>Best Hitter/Pitcher Matchups for September 11, 2025</t>
+    <t>Best Hitter/Pitcher Matchups for 09/11/2025</t>
+  </si>
+  <si>
+    <t>as of 09/11/2025 08:41 AM ET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +279,29 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -321,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,7 +357,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -341,8 +369,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -730,9 +767,9 @@
     <col min="4" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="26" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -761,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
@@ -787,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
@@ -813,7 +850,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="1">
@@ -839,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
@@ -865,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1">
@@ -891,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
@@ -917,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1">
@@ -943,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
@@ -969,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1">
@@ -1098,8 +1135,18 @@
         <v>52</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -1151,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1162,21 +1209,21 @@
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
@@ -1192,13 +1239,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1214,11 +1261,11 @@
       <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>69</v>
+      <c r="E3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1234,11 +1281,11 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>70</v>
+      <c r="E4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1254,16 +1301,28 @@
       <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="E5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:G5">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
